--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_2.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_2.xlsx
@@ -483,117 +483,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2373626373626374</v>
+        <v>0.115546218487395</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(70.98, 80.44), (18.12, 24.54)]</t>
+          <t>[(52.680839, 55.420793)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (56.72, 58.88)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(0.78, 24.86)]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1238738738738739</v>
+        <v>0.1576923076923077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'Bb', 'Eb']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.302038, 5.800261)]</t>
+          <t>[(4.25, 9.179)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(23.563446, 27.290249)]</t>
+          <t>[(129.38, 134.38)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2548262548262548</v>
+        <v>0.275</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
+          <t>[(35.197913, 43.754467), (37.995918, 46.610521)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18)]</t>
+          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -602,35 +598,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08928571428571427</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.331, 65.538)]</t>
+          <t>[(0.78, 24.86)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.852267, 15.522562)]</t>
+          <t>[(10.953139, 19.672232)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -639,35 +635,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.02827442827442828</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6'], ['Db:min7', 'Gb:7', 'B:maj7', 'E:min7']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6'], ['C#:min7', 'F#:7', 'B:maj7', 'E:min7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
+          <t>[(7.42, 9.88), (20.26, 23.37)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
+          <t>[(32.74, 35.48), (17.85, 20.65)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -676,76 +672,76 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.09018567639257294</v>
+        <v>0.1517241379310345</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min'], ['F:min', 'C:maj/F', 'F:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76), (5.84, 12.72)]</t>
+          <t>[(15.78, 21.28)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[(19.44, 28.3)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2125</v>
+        <v>0.09642857142857142</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
+          <t>[(59.5, 65.04)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
+          <t>[(271.22, 275.78)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -754,269 +750,281 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1689723320158103</v>
+        <v>0.1440993788819876</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['Bb:7', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
+          <t>[(18.253, 22.735)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[(44.16, 47.28)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1108870967741935</v>
+        <v>0.2913752913752914</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'F#:min', 'D']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'F#:min', 'D']]</t>
+          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(21.484829, 27.185328)]</t>
+          <t>[(13.74, 17.58)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.180354, 19.627233)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[(15.6, 27.52)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2767857142857143</v>
+        <v>0.1113122171945701</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.38, 7.84), (23.94, 31.16)]</t>
+          <t>[(17.34, 24.4)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72), (64.92, 67.9)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[(82.290863, 90.185647)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0945054945054945</v>
+        <v>0.09779367918902802</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb:7'], ['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj', 'F:7'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.92, 15.14), (36.82, 47.63)]</t>
+          <t>[(102.16, 113.9)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(81.94, 95.36), (79.04, 86.54)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[(38.62, 46.84)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_81</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(54.78, 57.52)]</t>
+          <t>[(102.174263, 115.003287)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.26, 22.26)]</t>
+          <t>[(107.64, 108.84)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_28</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.3091787439613526</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G/3', 'C', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G', 'C/5', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(34.3, 49.84)]</t>
+          <t>[(130.528, 132.075)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[(64.476575, 70.099405)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>isophonics_30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.131729667812142</v>
+        <v>0.1332236842105263</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['A', 'G/2', 'D/5']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'F', 'Bb']]</t>
+          <t>[['A', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.656213, 6.319079)]</t>
+          <t>[(59.723, 63.111)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.589104, 74.118628)]</t>
+          <t>[(7.645256, 11.062412)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1025,80 +1033,72 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>isophonics_99</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.1375</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'C', 'F']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[(45.474603, 48.945986)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[(16.376439, 18.860975)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1201501877346683</v>
+        <v>0.1821631878557875</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(0.98079, 5.421882)]</t>
+          <t>[(9.30541, 13.723731)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(12.971, 19.435)]</t>
+          <t>[(25.850181, 33.826235)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_2.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2504472271914133</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['G:maj(*1)/5', 'G', 'G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
+          <t>[['B', 'B', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.78, 24.86)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:10.454596', '0:00:26.430680')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1576923076923077</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>jaah_53</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03806850084222347</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G', 'A:min7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
+          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:44.180000', '0:00:49.060000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:13.160000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.126984126984127</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['Ab', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(35.197913, 43.754467), (37.995918, 46.610521)]</t>
+          <t>[['D', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:56.690000', '0:01:59.660000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:08.399000', '0:00:12.648000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1366459627329192</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1202898550724638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.78, 24.86)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.953139, 19.672232)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:02.560000', '0:00:06.820000'), ('0:00:17.940000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:26.960000', '0:00:33.500000'), ('0:04:42.120000', '0:04:47.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_19</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02827442827442828</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6'], ['Db:min7', 'Gb:7', 'B:maj7', 'E:min7']]</t>
-        </is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1826923076923077</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6'], ['C#:min7', 'F#:7', 'B:maj7', 'E:min7']]</t>
+          <t>[['D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.42, 9.88), (20.26, 23.37)]</t>
+          <t>[['A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.74, 35.48), (17.85, 20.65)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.459543', '0:00:06.438299')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:16.759569', '0:00:29.414444')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.44, 28.3)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(59.5, 65.04)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1440993788819876</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(18.253, 22.735)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(44.16, 47.28)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.74, 17.58)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.6, 27.52)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1113122171945701</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:32.874217', '0:00:37.657528'), ('0:00:33.698526', '0:00:40.885102')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2871794871794872</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(107.64, 108.84)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3091787439613526</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G', 'C']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(130.528, 132.075)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(64.476575, 70.099405)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1332236842105263</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'G/2', 'D/5']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'G', 'D']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.723, 63.111)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.645256, 11.062412)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(45.474603, 48.945986)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.376439, 18.860975)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1821631878557875</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.30541, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(25.850181, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
